--- a/Tip Cut.xlsx
+++ b/Tip Cut.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjdea\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99565322-A3F3-4933-90DD-505E3284DCEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F3D78D-F717-4404-9E1A-2E3DBF64C8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,6 +413,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,14 +451,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -890,7 +890,7 @@
   <dimension ref="B1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,10 +901,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="47"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
@@ -913,34 +913,34 @@
       <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="41" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="41" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="41" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="42"/>
+      <c r="Q2" s="45"/>
       <c r="R2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1591,94 +1591,94 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="39">
+      <c r="C18" s="47"/>
+      <c r="D18" s="42">
         <f>SUM(D2:D16)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="39">
+      <c r="E18" s="43"/>
+      <c r="F18" s="42">
         <f t="shared" ref="F18:J18" si="3">SUM(F2:F16)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="39">
+      <c r="G18" s="43"/>
+      <c r="H18" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="39">
+      <c r="I18" s="43"/>
+      <c r="J18" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="39">
+      <c r="K18" s="43"/>
+      <c r="L18" s="42">
         <f>SUM(L2:L16)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="40"/>
-      <c r="N18" s="39">
+      <c r="M18" s="43"/>
+      <c r="N18" s="42">
         <f t="shared" ref="N18" si="4">SUM(N2:N16)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="40"/>
-      <c r="P18" s="39">
+      <c r="O18" s="43"/>
+      <c r="P18" s="42">
         <f t="shared" ref="P18" si="5">SUM(P2:P16)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="40"/>
+      <c r="Q18" s="43"/>
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="37">
+      <c r="C19" s="49"/>
+      <c r="D19" s="40">
         <f>COUNT(D3:D17)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="37">
+      <c r="E19" s="41"/>
+      <c r="F19" s="40">
         <f t="shared" ref="F19" si="6">COUNT(F3:F17)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37">
+      <c r="G19" s="41"/>
+      <c r="H19" s="40">
         <f t="shared" ref="H19" si="7">COUNT(H3:H17)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="37">
+      <c r="I19" s="41"/>
+      <c r="J19" s="40">
         <f t="shared" ref="J19" si="8">COUNT(J3:J17)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="37">
+      <c r="K19" s="41"/>
+      <c r="L19" s="40">
         <f t="shared" ref="L19" si="9">COUNT(L3:L17)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="37">
+      <c r="M19" s="41"/>
+      <c r="N19" s="40">
         <f t="shared" ref="N19" si="10">COUNT(N3:N17)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="38"/>
-      <c r="P19" s="37">
+      <c r="O19" s="41"/>
+      <c r="P19" s="40">
         <f t="shared" ref="P19" si="11">COUNT(P3:P17)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="48"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="38"/>
     </row>
     <row r="20" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="8" t="e">
         <f>(D18-E20)/D19</f>
         <v>#DIV/0!</v>
@@ -1797,8 +1797,20 @@
     <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="P54W1IoRz/d2F3+Ks6kuMjfFIEeZdoUoLoQn2KuXlbvK9nAe8+gMUISIefQGza5RbdTanw7pnB7bu6czG1NABg==" saltValue="gUMBVzangznTRyPS2kbpZA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="24">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="P2:Q2"/>
@@ -1811,18 +1823,6 @@
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <conditionalFormatting sqref="R3:R17">
     <cfRule type="cellIs" dxfId="17" priority="48" operator="equal">
